--- a/docs/odh/odh-IsCurrentJob-model.xlsx
+++ b/docs/odh/odh-IsCurrentJob-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="59">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/YesNoVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-YesNoVS</t>
   </si>
   <si>
     <t>odh-IsCurrentJob-model.dataAbsentReason</t>
@@ -174,10 +174,19 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
+    <t>odh-IsCurrentJob-model.interpretation</t>
+  </si>
+  <si>
+    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+  </si>
+  <si>
     <t>odh-IsCurrentJob-model.referenceRange</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferenceRange-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -185,19 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0883335
-</t>
-  </si>
-  <si>
-    <t>odh-IsCurrentJob-model.interpretation</t>
-  </si>
-  <si>
-    <t>A clinical interpretation of a finding (applies to both assertions and observation).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0420833
 </t>
   </si>
 </sst>
@@ -347,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -895,7 +891,7 @@
         <v>37</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>36</v>
@@ -907,13 +903,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -940,16 +936,14 @@
         <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>36</v>
@@ -970,7 +964,7 @@
         <v>37</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>36</v>
@@ -981,7 +975,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -992,7 +986,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>36</v>
@@ -1004,7 +998,7 @@
         <v>36</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>57</v>
@@ -1037,15 +1031,17 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="Z7" t="s" s="2">
-        <v>59</v>
-      </c>
       <c r="AA7" t="s" s="2">
         <v>36</v>
       </c>
@@ -1059,13 +1055,13 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>36</v>
